--- a/NatuurlikBase/NatuurlikBase/wwwroot/Uploads/Suburbs.xlsx
+++ b/NatuurlikBase/NatuurlikBase/wwwroot/Uploads/Suburbs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C744FEE5-0468-409B-A0E0-92069D83380E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2EEBEC9-95EB-4143-8043-760F2E4FF70C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E760F324-E4E4-4C2C-8175-772B8CDA32EE}"/>
   </bookViews>
